--- a/xlsx/form_o_parties_outgrowers.xlsx
+++ b/xlsx/form_o_parties_outgrowers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_tenfac_oram_ile\form_o_parties\form_o_parties-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_ilrg_madal\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75EAD4-A966-4089-84CE-C9775DF4FF83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1212F36-5528-427B-B2D2-29F1B1A2147C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="275">
   <si>
     <t>type</t>
   </si>
@@ -870,14 +870,24 @@
   <si>
     <t>http://cavateco.terrafirma.co.mz:8080/oram_ile/submission</t>
   </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1192,246 +1202,260 @@
   </borders>
   <cellStyleXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -1446,199 +1470,186 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="240"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="240" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="240"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="240" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="240" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="269" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="269" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2251,11 +2262,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R96"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,8 +2788,8 @@
       </c>
       <c r="I30" s="24"/>
       <c r="L30" s="73"/>
-      <c r="P30" s="79" t="s">
-        <v>260</v>
+      <c r="P30" s="90" t="s">
+        <v>274</v>
       </c>
       <c r="R30" s="79" t="s">
         <v>20</v>
@@ -8601,8 +8612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8640,7 +8651,7 @@
         <v>167</v>
       </c>
       <c r="C2" s="6">
-        <v>202009211</v>
+        <v>2021020801</v>
       </c>
       <c r="D2" s="87" t="s">
         <v>273</v>
